--- a/受邀名单.xlsx
+++ b/受邀名单.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="131">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -501,6 +501,42 @@
   </si>
   <si>
     <t>周乐兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已通知</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1716,7 +1752,7 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1819,7 +1855,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1829,9 +1865,11 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F7" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1841,9 +1879,11 @@
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F8" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1853,7 +1893,9 @@
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
@@ -1869,7 +1911,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1879,7 +1921,9 @@
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
@@ -1953,7 +1997,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1963,9 +2007,11 @@
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F17" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1975,7 +2021,9 @@
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="6"/>
+      <c r="F18" s="6" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
@@ -1989,7 +2037,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1999,7 +2047,9 @@
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="6"/>
+      <c r="F20" s="6" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
@@ -2015,7 +2065,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -2025,9 +2075,11 @@
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F22" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -2037,7 +2089,9 @@
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="6"/>
+      <c r="F23" s="6" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
@@ -2091,7 +2145,7 @@
       <c r="E27" s="5"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -2101,9 +2155,11 @@
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
-      <c r="F28" s="6"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F28" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -2113,9 +2169,11 @@
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
-      <c r="F29" s="6"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F29" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -2125,7 +2183,9 @@
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
-      <c r="F30" s="6"/>
+      <c r="F30" s="6" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4">
@@ -2167,7 +2227,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -2177,9 +2237,11 @@
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F34" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -2189,7 +2251,9 @@
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
-      <c r="F35" s="6"/>
+      <c r="F35" s="6" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="4">
@@ -2217,7 +2281,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -2227,9 +2291,11 @@
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
-      <c r="F38" s="6"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F38" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -2239,9 +2305,11 @@
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
-      <c r="F39" s="6"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F39" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -2251,9 +2319,11 @@
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
-      <c r="F40" s="6"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F40" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -2263,9 +2333,11 @@
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
-      <c r="F41" s="6"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F41" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -2275,9 +2347,11 @@
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
-      <c r="F42" s="6"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F42" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -2287,7 +2361,9 @@
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
-      <c r="F43" s="6"/>
+      <c r="F43" s="6" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4">
@@ -2317,7 +2393,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -2327,9 +2403,11 @@
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
-      <c r="F46" s="6"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F46" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -2341,7 +2419,9 @@
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
-      <c r="F47" s="6"/>
+      <c r="F47" s="6" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4">
@@ -2367,7 +2447,7 @@
       <c r="E49" s="5"/>
       <c r="F49" s="6"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4">
         <v>48</v>
       </c>
@@ -2377,9 +2457,11 @@
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
-      <c r="F50" s="6"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F50" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4">
         <v>49</v>
       </c>
@@ -2389,7 +2471,9 @@
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
-      <c r="F51" s="6"/>
+      <c r="F51" s="6" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4">

--- a/受邀名单.xlsx
+++ b/受邀名单.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="134">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -452,18 +452,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>空号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已通知</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>高磊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -501,6 +493,26 @@
   </si>
   <si>
     <t>周乐兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已通知</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -544,7 +556,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -571,6 +583,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -777,7 +795,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -820,6 +838,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1125,10 +1144,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1156,7 +1175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1169,7 +1188,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1180,7 +1199,7 @@
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1202,11 +1221,11 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E5" s="20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1219,7 +1238,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1232,7 +1251,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1242,10 +1261,10 @@
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1267,9 +1286,11 @@
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E10" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1282,7 +1303,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1304,7 +1325,9 @@
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
@@ -1315,9 +1338,11 @@
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E14" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1330,7 +1355,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1343,7 +1368,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1356,7 +1381,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1369,7 +1394,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1382,7 +1407,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1395,7 +1420,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1408,7 +1433,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1430,7 +1455,9 @@
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="6"/>
+      <c r="E23" s="6" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
@@ -1441,7 +1468,9 @@
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="6"/>
+      <c r="E24" s="6" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
@@ -1452,7 +1481,9 @@
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="6"/>
+      <c r="E25" s="6" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
@@ -1463,9 +1494,11 @@
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E26" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -1476,7 +1509,7 @@
       <c r="D27" s="5"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -1489,7 +1522,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -1502,7 +1535,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -1515,7 +1548,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -1524,11 +1557,9 @@
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E31" s="12"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -1550,9 +1581,11 @@
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
-      <c r="E33" s="6"/>
-    </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E33" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -1574,9 +1607,11 @@
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
-      <c r="E35" s="6"/>
-    </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E35" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -1589,7 +1624,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -1602,7 +1637,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -1615,7 +1650,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -1628,7 +1663,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -1641,7 +1676,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -1654,7 +1689,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -1667,7 +1702,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -1680,7 +1715,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -1693,7 +1728,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -1706,12 +1741,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>45</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C46" s="10">
         <v>18008041920</v>
@@ -1721,23 +1756,23 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4">
         <v>47</v>
       </c>
     </row>
+    <row r="49" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <autoFilter ref="A1:E48">
     <filterColumn colId="4">
-      <filters blank="1">
-        <filter val="空号"/>
-        <filter val="未接"/>
-      </filters>
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1748,11 +1783,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1783,7 +1817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1799,7 +1833,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1813,7 +1847,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1827,7 +1861,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1838,10 +1872,10 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1852,10 +1886,10 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1866,10 +1900,10 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1883,7 +1917,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1897,7 +1931,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1908,10 +1942,10 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1922,10 +1956,10 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1941,7 +1975,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1955,7 +1989,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1969,7 +2003,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1983,7 +2017,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1997,7 +2031,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -2008,10 +2042,10 @@
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -2022,7 +2056,7 @@
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
@@ -2037,7 +2071,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -2048,10 +2082,10 @@
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -2065,7 +2099,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -2076,10 +2110,10 @@
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -2090,7 +2124,7 @@
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
@@ -2103,9 +2137,11 @@
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="F24" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -2119,7 +2155,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -2143,9 +2179,11 @@
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="F27" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -2159,7 +2197,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -2173,7 +2211,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -2184,10 +2222,10 @@
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -2211,9 +2249,11 @@
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
-      <c r="F32" s="6"/>
-    </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="F32" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -2227,7 +2267,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -2238,10 +2278,10 @@
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -2252,7 +2292,7 @@
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
@@ -2265,9 +2305,11 @@
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
-      <c r="F36" s="6"/>
-    </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="F36" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -2281,7 +2323,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -2292,10 +2334,10 @@
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -2306,10 +2348,10 @@
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -2320,10 +2362,10 @@
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -2337,7 +2379,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -2351,7 +2393,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -2362,24 +2404,24 @@
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="4">
         <v>43</v>
       </c>
       <c r="B44" s="15"/>
       <c r="C44" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -2393,7 +2435,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -2407,7 +2449,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -2420,10 +2462,10 @@
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -2438,18 +2480,22 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49" s="4"/>
+      <c r="A49" s="4">
+        <v>48</v>
+      </c>
       <c r="B49" s="16"/>
       <c r="C49" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
-      <c r="F49" s="6"/>
-    </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="F49" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="4">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" s="16"/>
       <c r="C50" s="5" t="s">
@@ -2461,9 +2507,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="4">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" s="16"/>
       <c r="C51" s="5" t="s">
@@ -2472,12 +2518,12 @@
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" s="16"/>
       <c r="C52" s="5" t="s">
@@ -2486,12 +2532,12 @@
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>93</v>
@@ -2502,20 +2548,17 @@
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E62" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F53">
-    <filterColumn colId="5">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F53"/>
   <mergeCells count="3">
     <mergeCell ref="B12:B46"/>
     <mergeCell ref="B47:B52"/>
